--- a/recipeCreationCFCDCMode.xlsx
+++ b/recipeCreationCFCDCMode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lattice\Desktop\ss\RecipeCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02F9181-AB55-4B0F-83E6-046A80FBADB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E7C822-8C69-4924-BE6E-DF452A397B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModeCFCCDC0" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5969" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5964" uniqueCount="244">
   <si>
     <t>UC_ID</t>
   </si>
@@ -545,15 +545,6 @@
     <t>tubingSize16</t>
   </si>
   <si>
-    <t>Enter permeate with endpoint value</t>
-  </si>
-  <si>
-    <t>Selecet the main pump drop down</t>
-  </si>
-  <si>
-    <t>Selecet the KR2i main pump</t>
-  </si>
-  <si>
     <t>Click if user wants to go to the step 2</t>
   </si>
   <si>
@@ -668,15 +659,6 @@
     <t>KrosFlo FS 500</t>
   </si>
   <si>
-    <t>toastMessage</t>
-  </si>
-  <si>
-    <t>captureMessage</t>
-  </si>
-  <si>
-    <t>Recipe created</t>
-  </si>
-  <si>
     <t>selectEndpointTypeC1</t>
   </si>
   <si>
@@ -765,6 +747,33 @@
   </si>
   <si>
     <t>Click on the CFCDC Mode</t>
+  </si>
+  <si>
+    <t>Click on the concentration factor with endpoint</t>
+  </si>
+  <si>
+    <t>Enter enter concentration factor endpoint value</t>
+  </si>
+  <si>
+    <t>Click on the diafiltration volume endpoint</t>
+  </si>
+  <si>
+    <t>Enter permeate weight endpoint value</t>
+  </si>
+  <si>
+    <t>Click on UV endpoint</t>
+  </si>
+  <si>
+    <t>Enter UV endpoint value</t>
+  </si>
+  <si>
+    <t>Select the main pump drop down</t>
+  </si>
+  <si>
+    <t>Select the KR2i main pump</t>
+  </si>
+  <si>
+    <t>Enter diafiltration volume endpoint value</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06968273-B5FF-4DDF-9616-03EB7EEDE40B}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1366,8 +1375,8 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -1390,8 +1399,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -1414,8 +1423,8 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1438,8 +1447,8 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="G5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -1462,8 +1471,8 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -1572,7 +1581,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -1638,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -1662,7 +1671,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1671,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -1758,7 +1767,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -1767,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -1782,7 +1791,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1791,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -1806,7 +1815,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1815,7 +1824,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -1830,7 +1839,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1839,7 +1848,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -1854,7 +1863,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1863,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -1878,7 +1887,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1887,7 +1896,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -1902,7 +1911,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1911,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -1926,7 +1935,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1935,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -1950,16 +1959,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -2022,7 +2031,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -2046,7 +2055,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -2212,7 +2221,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -2236,7 +2245,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -2328,7 +2337,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -2351,7 +2360,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -2420,7 +2429,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -2535,7 +2544,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -2558,7 +2567,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -2673,7 +2682,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -2682,7 +2691,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -2696,7 +2705,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -2705,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -2713,7 +2722,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -2736,16 +2745,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -2759,7 +2768,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -2768,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -2776,7 +2785,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -2960,7 +2969,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -2983,7 +2992,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -3190,7 +3199,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -3213,7 +3222,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -3305,7 +3314,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -3328,7 +3337,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -3351,7 +3360,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -3570,31 +3579,11 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>1.4</v>
-      </c>
-      <c r="B98">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D98" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F98" t="s">
-        <v>208</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="G98" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3610,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353F7C62-A3A7-4A3F-974E-A86CAAC2D3EE}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3875,7 +3864,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -3941,13 +3930,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -3965,7 +3954,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -3974,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -4061,7 +4050,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -4070,7 +4059,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -4085,7 +4074,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -4094,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -4109,7 +4098,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -4118,7 +4107,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -4133,7 +4122,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -4142,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -4157,7 +4146,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -4166,7 +4155,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -4181,7 +4170,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -4190,7 +4179,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -4205,7 +4194,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -4214,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -4229,7 +4218,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -4238,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -4253,16 +4242,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -4325,7 +4314,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -4349,16 +4338,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -4515,7 +4504,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -4539,16 +4528,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>22</v>
@@ -4631,7 +4620,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -4654,7 +4643,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -4723,7 +4712,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -4752,10 +4741,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -4781,7 +4770,7 @@
         <v>77</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -4838,7 +4827,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -4861,16 +4850,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>13</v>
@@ -4976,7 +4965,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -4985,7 +4974,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -4999,7 +4988,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -5008,7 +4997,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -5022,16 +5011,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>13</v>
@@ -5045,16 +5034,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -5068,7 +5057,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -5077,7 +5066,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -5091,7 +5080,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -5275,7 +5264,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -5298,7 +5287,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -5505,7 +5494,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -5528,16 +5517,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>13</v>
@@ -5620,7 +5609,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -5643,7 +5632,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -5666,7 +5655,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -5885,7 +5874,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5901,7 +5890,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6165,7 +6154,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -6231,13 +6220,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -6255,7 +6244,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -6264,7 +6253,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -6351,7 +6340,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -6360,7 +6349,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -6375,7 +6364,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -6384,7 +6373,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -6399,16 +6388,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -6423,7 +6412,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -6432,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -6447,7 +6436,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -6456,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -6471,7 +6460,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6480,7 +6469,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -6495,7 +6484,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -6504,7 +6493,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -6519,7 +6508,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -6528,7 +6517,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -6543,16 +6532,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -6615,7 +6604,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -6639,16 +6628,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -6805,7 +6794,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -6829,16 +6818,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>22</v>
@@ -6921,7 +6910,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -6944,7 +6933,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -7013,7 +7002,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -7042,10 +7031,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -7128,7 +7117,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -7151,16 +7140,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>13</v>
@@ -7266,7 +7255,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -7275,7 +7264,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -7289,7 +7278,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -7298,7 +7287,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -7312,16 +7301,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>13</v>
@@ -7335,16 +7324,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -7358,7 +7347,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -7367,7 +7356,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -7381,7 +7370,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -7565,7 +7554,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -7588,7 +7577,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -7795,7 +7784,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -7818,16 +7807,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>13</v>
@@ -7910,7 +7899,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -7933,7 +7922,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -7956,7 +7945,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -8175,7 +8164,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8191,7 +8180,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8455,7 +8444,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -8521,13 +8510,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -8545,7 +8534,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -8554,7 +8543,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -8641,7 +8630,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -8650,7 +8639,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -8665,7 +8654,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -8674,7 +8663,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -8689,16 +8678,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -8713,7 +8702,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -8722,7 +8711,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -8737,7 +8726,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -8746,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -8761,16 +8750,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -8785,7 +8774,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -8794,7 +8783,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -8809,7 +8798,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -8818,7 +8807,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -8833,16 +8822,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -8905,7 +8894,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -8929,16 +8918,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -9095,7 +9084,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -9119,16 +9108,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>22</v>
@@ -9211,7 +9200,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -9234,7 +9223,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -9303,7 +9292,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -9332,10 +9321,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -9418,7 +9407,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -9441,16 +9430,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>13</v>
@@ -9556,7 +9545,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -9565,7 +9554,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -9579,7 +9568,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -9588,7 +9577,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -9602,16 +9591,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>13</v>
@@ -9625,16 +9614,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -9648,7 +9637,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -9657,7 +9646,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -9671,7 +9660,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -9855,7 +9844,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -9878,7 +9867,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -10085,7 +10074,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -10108,16 +10097,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>13</v>
@@ -10200,7 +10189,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -10223,7 +10212,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -10246,7 +10235,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -10465,7 +10454,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -10481,7 +10470,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10745,7 +10734,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -10811,13 +10800,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -10835,7 +10824,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -10844,7 +10833,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -10931,7 +10920,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -10940,7 +10929,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -10955,7 +10944,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -10964,7 +10953,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -10979,16 +10968,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -11003,7 +10992,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -11012,7 +11001,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -11027,7 +11016,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -11036,7 +11025,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -11051,7 +11040,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -11060,7 +11049,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -11075,7 +11064,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -11084,7 +11073,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -11099,7 +11088,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -11108,7 +11097,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -11123,16 +11112,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -11195,7 +11184,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -11219,7 +11208,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -11385,7 +11374,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -11409,7 +11398,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -11501,7 +11490,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -11524,7 +11513,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -11593,7 +11582,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -11708,7 +11697,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -11731,7 +11720,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -11846,7 +11835,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -11855,7 +11844,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -11869,7 +11858,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -11878,7 +11867,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -11886,7 +11875,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -11909,16 +11898,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -11932,7 +11921,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -11941,7 +11930,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -11949,7 +11938,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -12140,7 +12129,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>165</v>
@@ -12164,7 +12153,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>165</v>
@@ -12380,7 +12369,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" s="21" t="s">
         <v>21</v>
@@ -12404,7 +12393,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -12496,7 +12485,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -12519,7 +12508,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -12542,7 +12531,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -12761,7 +12750,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -12778,7 +12767,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13042,7 +13031,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -13108,13 +13097,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -13132,7 +13121,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -13141,7 +13130,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -13228,7 +13217,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -13237,7 +13226,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -13252,7 +13241,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -13261,7 +13250,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -13276,16 +13265,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -13300,7 +13289,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -13309,7 +13298,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -13324,7 +13313,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -13333,7 +13322,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -13348,16 +13337,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -13372,7 +13361,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -13381,7 +13370,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -13396,7 +13385,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -13405,7 +13394,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -13420,16 +13409,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -13492,7 +13481,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -13516,7 +13505,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -13682,7 +13671,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -13706,7 +13695,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -13798,7 +13787,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -13821,7 +13810,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -13890,7 +13879,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -14005,7 +13994,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -14028,7 +14017,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -14143,7 +14132,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -14152,7 +14141,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -14166,7 +14155,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -14175,7 +14164,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -14183,7 +14172,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -14206,16 +14195,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -14229,7 +14218,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -14238,7 +14227,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -14246,7 +14235,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -14430,7 +14419,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -14453,7 +14442,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -14660,7 +14649,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -14683,7 +14672,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -14775,7 +14764,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -14798,7 +14787,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -14821,7 +14810,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -15040,7 +15029,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -15055,8 +15044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D330A-C15D-4736-9D57-120BD7CA4F73}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15320,7 +15309,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -15386,13 +15375,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -15410,7 +15399,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -15419,7 +15408,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -15506,7 +15495,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -15515,7 +15504,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -15530,7 +15519,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -15539,7 +15528,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -15554,7 +15543,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -15563,7 +15552,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -15578,7 +15567,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -15587,7 +15576,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -15602,7 +15591,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -15611,7 +15600,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -15626,7 +15615,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -15635,7 +15624,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -15650,7 +15639,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -15659,7 +15648,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -15674,7 +15663,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -15683,7 +15672,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -15698,16 +15687,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -15770,7 +15759,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -15794,7 +15783,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -15803,7 +15792,7 @@
         <v>87</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -15960,7 +15949,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -15984,16 +15973,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>13</v>
@@ -16076,7 +16065,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -16099,7 +16088,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -16168,7 +16157,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -16197,10 +16186,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -16226,7 +16215,7 @@
         <v>77</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -16283,7 +16272,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -16306,16 +16295,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>13</v>
@@ -16421,7 +16410,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -16430,7 +16419,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -16444,7 +16433,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -16453,7 +16442,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -16467,16 +16456,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>13</v>
@@ -16490,16 +16479,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -16513,7 +16502,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -16522,7 +16511,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -16536,7 +16525,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -16720,7 +16709,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -16743,7 +16732,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -16950,7 +16939,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -16973,16 +16962,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>13</v>
@@ -17065,7 +17054,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -17088,7 +17077,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -17111,7 +17100,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -17330,7 +17319,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -17345,8 +17334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76415543-006F-4B46-BC42-8FFA82CC8F3B}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17610,7 +17599,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -17676,13 +17665,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -17700,7 +17689,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -17709,7 +17698,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -17796,7 +17785,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -17805,7 +17794,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -17820,7 +17809,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -17829,7 +17818,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -17844,16 +17833,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -17868,7 +17857,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -17877,7 +17866,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -17892,7 +17881,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -17901,7 +17890,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -17916,7 +17905,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -17925,7 +17914,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -17940,7 +17929,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -17949,7 +17938,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -17964,7 +17953,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -17973,7 +17962,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -17988,16 +17977,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -18060,7 +18049,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -18084,7 +18073,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -18093,7 +18082,7 @@
         <v>87</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -18250,7 +18239,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -18274,16 +18263,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>13</v>
@@ -18366,7 +18355,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -18389,7 +18378,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -18458,7 +18447,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -18487,10 +18476,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -18573,7 +18562,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -18596,16 +18585,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>22</v>
@@ -18711,7 +18700,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -18720,7 +18709,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -18734,7 +18723,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -18743,7 +18732,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -18757,16 +18746,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>13</v>
@@ -18780,16 +18769,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -18803,7 +18792,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -18812,7 +18801,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -18826,7 +18815,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -19010,7 +18999,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -19033,7 +19022,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -19240,7 +19229,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -19263,16 +19252,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>13</v>
@@ -19355,7 +19344,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -19378,7 +19367,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -19401,7 +19390,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -19620,7 +19609,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -19636,7 +19625,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19900,7 +19889,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -19966,13 +19955,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -19990,7 +19979,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -19999,7 +19988,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -20086,7 +20075,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -20095,7 +20084,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -20110,7 +20099,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -20119,7 +20108,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -20134,16 +20123,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -20158,7 +20147,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -20167,7 +20156,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -20182,7 +20171,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -20191,7 +20180,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -20206,16 +20195,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -20230,7 +20219,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -20239,7 +20228,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -20254,7 +20243,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -20263,7 +20252,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -20278,16 +20267,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -20350,7 +20339,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -20374,7 +20363,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -20383,7 +20372,7 @@
         <v>87</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -20540,7 +20529,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -20564,16 +20553,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>13</v>
@@ -20656,7 +20645,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -20679,7 +20668,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -20748,7 +20737,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -20777,10 +20766,10 @@
         <v>21</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>13</v>
@@ -20863,7 +20852,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -20886,16 +20875,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>22</v>
@@ -21001,7 +20990,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -21010,7 +20999,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -21024,7 +21013,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -21033,7 +21022,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -21047,16 +21036,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>13</v>
@@ -21070,16 +21059,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -21093,7 +21082,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -21102,7 +21091,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -21116,7 +21105,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -21300,7 +21289,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -21323,7 +21312,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -21530,7 +21519,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -21553,16 +21542,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>13</v>
@@ -21645,7 +21634,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -21668,7 +21657,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -21691,7 +21680,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -21910,7 +21899,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -21926,8 +21915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E855714-9B39-4CC2-A9F7-DB85BBFA9633}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22191,7 +22180,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -22257,13 +22246,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -22281,7 +22270,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -22290,7 +22279,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -22377,7 +22366,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -22386,7 +22375,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -22401,7 +22390,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -22410,7 +22399,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -22425,7 +22414,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -22434,7 +22423,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -22449,7 +22438,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -22458,7 +22447,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -22473,7 +22462,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -22482,7 +22471,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -22497,7 +22486,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -22506,7 +22495,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -22521,7 +22510,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -22530,7 +22519,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -22545,7 +22534,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -22554,7 +22543,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -22569,16 +22558,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -22641,7 +22630,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -22665,16 +22654,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -22831,7 +22820,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -22855,7 +22844,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -22947,7 +22936,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -22970,7 +22959,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -23039,7 +23028,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -23154,7 +23143,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -23177,7 +23166,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -23292,7 +23281,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -23301,7 +23290,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -23315,7 +23304,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -23324,7 +23313,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -23332,7 +23321,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -23355,16 +23344,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -23378,7 +23367,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -23387,7 +23376,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -23395,7 +23384,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -23579,7 +23568,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -23602,7 +23591,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -23809,7 +23798,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -23832,7 +23821,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -23924,7 +23913,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -23947,7 +23936,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -23970,7 +23959,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -24189,7 +24178,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -24205,7 +24194,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24469,7 +24458,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -24535,13 +24524,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -24559,7 +24548,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -24568,7 +24557,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -24655,7 +24644,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -24664,7 +24653,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -24679,7 +24668,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -24688,7 +24677,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -24703,16 +24692,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -24727,7 +24716,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -24736,7 +24725,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -24751,7 +24740,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -24760,7 +24749,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -24775,7 +24764,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -24784,7 +24773,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -24799,7 +24788,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -24808,7 +24797,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -24823,7 +24812,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -24832,7 +24821,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -24847,16 +24836,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -24919,7 +24908,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -24943,16 +24932,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -25109,7 +25098,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -25133,7 +25122,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -25225,7 +25214,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -25248,7 +25237,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -25317,7 +25306,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -25432,7 +25421,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -25455,7 +25444,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -25570,7 +25559,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -25579,7 +25568,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -25593,7 +25582,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -25602,7 +25591,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -25610,7 +25599,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -25633,16 +25622,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -25656,7 +25645,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -25665,7 +25654,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -25673,7 +25662,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -25857,7 +25846,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -25880,7 +25869,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -26087,7 +26076,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -26110,7 +26099,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -26202,7 +26191,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -26225,7 +26214,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -26248,7 +26237,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -26467,7 +26456,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -26482,8 +26471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96B47C-7483-4D41-904F-18015E95C5A0}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD30"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26747,7 +26736,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -26813,13 +26802,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -26837,7 +26826,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -26846,7 +26835,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -26933,7 +26922,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -26942,7 +26931,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -26957,7 +26946,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -26966,7 +26955,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -26981,16 +26970,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -27005,7 +26994,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -27014,7 +27003,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -27029,7 +27018,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -27038,7 +27027,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -27053,16 +27042,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -27077,7 +27066,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -27086,7 +27075,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -27101,7 +27090,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -27110,7 +27099,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -27125,16 +27114,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -27197,7 +27186,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -27221,16 +27210,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>13</v>
@@ -27387,7 +27376,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -27411,7 +27400,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -27503,7 +27492,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -27526,7 +27515,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -27595,7 +27584,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -27710,7 +27699,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>21</v>
@@ -27733,7 +27722,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>21</v>
@@ -27848,7 +27837,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
         <v>165</v>
@@ -27857,7 +27846,7 @@
         <v>82</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>13</v>
@@ -27871,7 +27860,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -27880,7 +27869,7 @@
         <v>12</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>13</v>
@@ -27888,7 +27877,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -27911,16 +27900,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -27934,7 +27923,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -27943,7 +27932,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -27951,7 +27940,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -28135,7 +28124,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
         <v>165</v>
@@ -28158,7 +28147,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>165</v>
@@ -28365,7 +28354,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -28388,7 +28377,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -28480,7 +28469,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -28503,7 +28492,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>21</v>
@@ -28526,7 +28515,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>21</v>
@@ -28745,7 +28734,7 @@
         <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
